--- a/biology/Zoologie/Alpin_à_disque_rouge/Alpin_à_disque_rouge.xlsx
+++ b/biology/Zoologie/Alpin_à_disque_rouge/Alpin_à_disque_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alpin_%C3%A0_disque_rouge</t>
+          <t>Alpin_à_disque_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia discoidalis
 L'Alpin à disque rouge (Erebia discoidalis) est une espèce de lépidoptères de la famille des Nymphalidae, de la sous-famille des Satyrinae et du genre Erebia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alpin_%C3%A0_disque_rouge</t>
+          <t>Alpin_à_disque_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Erebia discoidalis a été nommé par W. Kirby en 1837.
-Nom vernaculaire
-Il se nomme en anglais Red-disked Alpine[1]
-Liste des sous-espèces
-Erebia discoidalis lena Christoph, 1889 présent dans le Nord de la Sibérie.
-Erebia discoidalis mcdunnoughi dos Passos 1940 présent au Canada[2]
-Erebia discoidalis yablonoica Warren, 1931[3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia discoidalis a été nommé par W. Kirby en 1837.
+</t>
         </is>
       </c>
     </row>
@@ -530,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alpin_%C3%A0_disque_rouge</t>
+          <t>Alpin_à_disque_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Alpin à disque rouge est un papillon de taille moyenne, d'une envergure de 35 à 45 mm, marron foncé presque noir avec une large tache rouge orangé au centre de l'aile antérieure.
-Le revers est uniformément sombre[1].
-La chenille est de couleur crème, ornée d'une bande sombre[2].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme en anglais Red-disked Alpine
 </t>
         </is>
       </c>
@@ -563,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alpin_%C3%A0_disque_rouge</t>
+          <t>Alpin_à_disque_rouge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,17 +591,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il hiverne à l'état de chenille sur un cycle probablement de deux ans.
-Il vole en une génération en mai et juin[1].
-Plantes hôtes
-Les plantes hôtes des chenilles sont des graminées, des pâturins, Poa lucida dans une partie de son aire de répartition[4].
-</t>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Erebia discoidalis lena Christoph, 1889 présent dans le Nord de la Sibérie.
+Erebia discoidalis mcdunnoughi dos Passos 1940 présent au Canada
+Erebia discoidalis yablonoica Warren, 1931</t>
         </is>
       </c>
     </row>
@@ -598,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alpin_%C3%A0_disque_rouge</t>
+          <t>Alpin_à_disque_rouge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,16 +629,198 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Alpin à disque rouge est un papillon de taille moyenne, d'une envergure de 35 à 45 mm, marron foncé presque noir avec une large tache rouge orangé au centre de l'aile antérieure.
+Le revers est uniformément sombre.
+La chenille est de couleur crème, ornée d'une bande sombre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alpin_à_disque_rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alpin_%C3%A0_disque_rouge</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne à l'état de chenille sur un cycle probablement de deux ans.
+Il vole en une génération en mai et juin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alpin_à_disque_rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alpin_%C3%A0_disque_rouge</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes des chenilles sont des graminées, des pâturins, Poa lucida dans une partie de son aire de répartition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alpin_à_disque_rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alpin_%C3%A0_disque_rouge</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent sur les côtes arctiques, en Asie dans la toundra de la Sibérie et en Amérique du Nord, dans le nord des USA et le sud du Canada, du sud de l'Alaska et de l'Alberta, au nord du Montana, du Wisconsin et du Michigan et sud du Québec[3],[1],[2].
-Biotope
-Il réside dans les prairies humides et en bordure de forêt[2].
-Protection
-Pas de statut de protection particulier
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent sur les côtes arctiques, en Asie dans la toundra de la Sibérie et en Amérique du Nord, dans le nord des USA et le sud du Canada, du sud de l'Alaska et de l'Alberta, au nord du Montana, du Wisconsin et du Michigan et sud du Québec.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alpin_à_disque_rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alpin_%C3%A0_disque_rouge</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les prairies humides et en bordure de forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alpin_à_disque_rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alpin_%C3%A0_disque_rouge</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
 </t>
         </is>
       </c>
